--- a/RNAC_2011.xlsx
+++ b/RNAC_2011.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="517">
   <si>
     <t>ID SISMO</t>
   </si>
@@ -1033,7 +1033,7 @@
     <t>CIBA1, CMAN1, CNOCA</t>
   </si>
   <si>
-    <t>Colombia ()</t>
+    <t>Colombia</t>
   </si>
   <si>
     <t>CIBA1, CFLOR, CNOCA</t>
@@ -1355,9 +1355,6 @@
   </si>
   <si>
     <t>CIBA1, CROSA, CNOCA, CFLOR</t>
-  </si>
-  <si>
-    <t>Bolivar ()</t>
   </si>
   <si>
     <t>CNOCA, CROSA, CIBA1, CCUC3, CVALL, CFLOR</t>
@@ -1924,8 +1921,8 @@
   </sheetPr>
   <dimension ref="A1:I938"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A852" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C852" activeCellId="0" sqref="C852"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A743" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C752" activeCellId="0" sqref="C752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -24008,7 +24005,7 @@
         <v>41306</v>
       </c>
       <c r="C762" s="4" t="s">
-        <v>446</v>
+        <v>178</v>
       </c>
       <c r="D762" s="8" t="n">
         <v>0.109976851851852</v>
@@ -24026,7 +24023,7 @@
         <v>-73.7</v>
       </c>
       <c r="I762" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24414,7 +24411,7 @@
         <v>41320</v>
       </c>
       <c r="C776" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D776" s="8" t="n">
         <v>0.465034722222222</v>
@@ -24490,7 +24487,7 @@
         <v>-73097</v>
       </c>
       <c r="I778" s="11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24588,7 +24585,7 @@
         <v>41326</v>
       </c>
       <c r="C782" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D782" s="8" t="n">
         <v>0.0845023148148148</v>
@@ -24675,7 +24672,7 @@
         <v>41329</v>
       </c>
       <c r="C785" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D785" s="8" t="n">
         <v>0.0908680555555556</v>
@@ -24710,7 +24707,7 @@
         <v>0.1190625</v>
       </c>
       <c r="E786" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F786" s="4" t="n">
         <v>18.4</v>
@@ -24878,7 +24875,7 @@
         <v>41336</v>
       </c>
       <c r="C792" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D792" s="8" t="n">
         <v>0.471099537037037</v>
@@ -25012,7 +25009,7 @@
         <v>-76202</v>
       </c>
       <c r="I796" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25099,7 +25096,7 @@
         <v>-73105</v>
       </c>
       <c r="I799" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25273,7 +25270,7 @@
         <v>-77577</v>
       </c>
       <c r="I805" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25371,7 +25368,7 @@
         <v>41353</v>
       </c>
       <c r="C809" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D809" s="8" t="n">
         <v>0.144479166666667</v>
@@ -25389,7 +25386,7 @@
         <v>-73433</v>
       </c>
       <c r="I809" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25476,7 +25473,7 @@
         <v>-77386</v>
       </c>
       <c r="I812" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25545,7 +25542,7 @@
         <v>41359</v>
       </c>
       <c r="C815" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D815" s="8" t="n">
         <v>0.47244212962963</v>
@@ -25563,7 +25560,7 @@
         <v>-73328</v>
       </c>
       <c r="I815" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25621,7 +25618,7 @@
         <v>-76146</v>
       </c>
       <c r="I817" s="11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25679,7 +25676,7 @@
         <v>-73097</v>
       </c>
       <c r="I819" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25708,7 +25705,7 @@
         <v>-73117</v>
       </c>
       <c r="I820" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25911,7 +25908,7 @@
         <v>-75974</v>
       </c>
       <c r="I827" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25922,7 +25919,7 @@
         <v>41372</v>
       </c>
       <c r="C828" s="21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D828" s="8" t="n">
         <v>0.781851851851852</v>
@@ -25980,7 +25977,7 @@
         <v>41374</v>
       </c>
       <c r="C830" s="21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D830" s="8" t="n">
         <v>0.0312037037037037</v>
@@ -25998,7 +25995,7 @@
         <v>-74691</v>
       </c>
       <c r="I830" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26027,7 +26024,7 @@
         <v>-76498</v>
       </c>
       <c r="I831" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26143,7 +26140,7 @@
         <v>-77484</v>
       </c>
       <c r="I835" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26183,7 +26180,7 @@
         <v>41381</v>
       </c>
       <c r="C837" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D837" s="8" t="n">
         <v>0.586967592592593</v>
@@ -26317,7 +26314,7 @@
         <v>-75295</v>
       </c>
       <c r="I841" s="11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26433,7 +26430,7 @@
         <v>-76334</v>
       </c>
       <c r="I845" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26444,7 +26441,7 @@
         <v>41390</v>
       </c>
       <c r="C846" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D846" s="8" t="n">
         <v>0.743553240740741</v>
@@ -26462,7 +26459,7 @@
         <v>-77504</v>
       </c>
       <c r="I846" s="11" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26473,7 +26470,7 @@
         <v>41391</v>
       </c>
       <c r="C847" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D847" s="8" t="n">
         <v>0.775555555555556</v>
@@ -26491,7 +26488,7 @@
         <v>-75647</v>
       </c>
       <c r="I847" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26520,7 +26517,7 @@
         <v>-72857</v>
       </c>
       <c r="I848" s="11" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26560,7 +26557,7 @@
         <v>41394</v>
       </c>
       <c r="C850" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D850" s="8" t="n">
         <v>0.528657407407407</v>
@@ -26578,7 +26575,7 @@
         <v>-73785</v>
       </c>
       <c r="I850" s="11" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26636,7 +26633,7 @@
         <v>-73.13</v>
       </c>
       <c r="I852" s="11" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26723,7 +26720,7 @@
         <v>-76159</v>
       </c>
       <c r="I855" s="11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26868,7 +26865,7 @@
         <v>38</v>
       </c>
       <c r="I860" s="11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26897,7 +26894,7 @@
         <v>-73135</v>
       </c>
       <c r="I861" s="11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26908,7 +26905,7 @@
         <v>41406</v>
       </c>
       <c r="C862" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D862" s="8" t="n">
         <v>0.324548611111111</v>
@@ -26937,7 +26934,7 @@
         <v>41407</v>
       </c>
       <c r="C863" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D863" s="8" t="n">
         <v>0.257743055555556</v>
@@ -27042,7 +27039,7 @@
         <v>-73145</v>
       </c>
       <c r="I866" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27111,13 +27108,13 @@
         <v>41413</v>
       </c>
       <c r="C869" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D869" s="6" t="n">
         <v>0.783530092592593</v>
       </c>
       <c r="E869" s="21" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F869" s="4" t="n">
         <v>556.7</v>
@@ -27129,7 +27126,7 @@
         <v>-65125</v>
       </c>
       <c r="I869" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27140,7 +27137,7 @@
         <v>41414</v>
       </c>
       <c r="C870" s="21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D870" s="8" t="n">
         <v>0.970474537037037</v>
@@ -27158,7 +27155,7 @@
         <v>-76455</v>
       </c>
       <c r="I870" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27245,7 +27242,7 @@
         <v>38</v>
       </c>
       <c r="I873" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27256,7 +27253,7 @@
         <v>41418</v>
       </c>
       <c r="C874" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D874" s="8" t="n">
         <v>0.910844907407407</v>
@@ -27343,7 +27340,7 @@
         <v>41421</v>
       </c>
       <c r="C877" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D877" s="6" t="n">
         <v>0.558449074074074</v>
@@ -27361,7 +27358,7 @@
         <v>-76.07</v>
       </c>
       <c r="I877" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27372,7 +27369,7 @@
         <v>41422</v>
       </c>
       <c r="C878" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D878" s="8" t="n">
         <v>0.303194444444444</v>
@@ -27390,7 +27387,7 @@
         <v>-77801</v>
       </c>
       <c r="I878" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27401,7 +27398,7 @@
         <v>41423</v>
       </c>
       <c r="C879" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D879" s="8" t="n">
         <v>0.381493055555555</v>
@@ -27419,7 +27416,7 @@
         <v>-74514</v>
       </c>
       <c r="I879" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27448,7 +27445,7 @@
         <v>-75423</v>
       </c>
       <c r="I880" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27459,7 +27456,7 @@
         <v>41425</v>
       </c>
       <c r="C881" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D881" s="8" t="n">
         <v>0.43525462962963</v>
@@ -27506,7 +27503,7 @@
         <v>-76156</v>
       </c>
       <c r="I882" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27535,7 +27532,7 @@
         <v>-77509</v>
       </c>
       <c r="I883" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27639,7 +27636,7 @@
         <v>0.108090277777778</v>
       </c>
       <c r="E887" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F887" s="4" t="n">
         <v>25.6</v>
@@ -27720,7 +27717,7 @@
         <v>41434</v>
       </c>
       <c r="C890" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D890" s="8" t="n">
         <v>0.70162037037037</v>
@@ -27738,7 +27735,7 @@
         <v>-73257</v>
       </c>
       <c r="I890" s="11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27767,7 +27764,7 @@
         <v>-74111</v>
       </c>
       <c r="I891" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27825,7 +27822,7 @@
         <v>-75306</v>
       </c>
       <c r="I893" s="11" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27970,7 +27967,7 @@
         <v>-77.33</v>
       </c>
       <c r="I898" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28028,7 +28025,7 @@
         <v>-77.48</v>
       </c>
       <c r="I900" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28057,7 +28054,7 @@
         <v>-77.33</v>
       </c>
       <c r="I901" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28103,7 +28100,7 @@
         <v>0.311238425925926</v>
       </c>
       <c r="E903" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F903" s="26" t="n">
         <v>7</v>
@@ -28115,7 +28112,7 @@
         <v>-82.58</v>
       </c>
       <c r="I903" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28155,7 +28152,7 @@
         <v>41449</v>
       </c>
       <c r="C905" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D905" s="8" t="n">
         <v>0.29494212962963</v>
@@ -28173,7 +28170,7 @@
         <v>-76319</v>
       </c>
       <c r="I905" s="11" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28202,7 +28199,7 @@
         <v>-73118</v>
       </c>
       <c r="I906" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28289,7 +28286,7 @@
         <v>-73117</v>
       </c>
       <c r="I909" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="910" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28318,7 +28315,7 @@
         <v>-73124</v>
       </c>
       <c r="I910" s="11" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="911" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28347,7 +28344,7 @@
         <v>-75949</v>
       </c>
       <c r="I911" s="11" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28376,7 +28373,7 @@
         <v>38</v>
       </c>
       <c r="I912" s="11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28492,7 +28489,7 @@
         <v>-78762</v>
       </c>
       <c r="I916" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="917" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28521,7 +28518,7 @@
         <v>-73116</v>
       </c>
       <c r="I917" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28579,7 +28576,7 @@
         <v>-73.72</v>
       </c>
       <c r="I919" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="920" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28637,7 +28634,7 @@
         <v>-73168</v>
       </c>
       <c r="I921" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28735,7 +28732,7 @@
         <v>41469</v>
       </c>
       <c r="C925" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D925" s="8" t="n">
         <v>0.77337962962963</v>
@@ -29072,7 +29069,7 @@
         <v>-77.45</v>
       </c>
       <c r="I936" s="11" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="937" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29101,7 +29098,7 @@
         <v>-73136</v>
       </c>
       <c r="I937" s="11" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
